--- a/materdata.xlsx
+++ b/materdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="hanghoa" sheetId="2" r:id="rId1"/>
@@ -110,27 +110,18 @@
     <t>ruounep</t>
   </si>
   <si>
-    <t>Ru?u n?p</t>
-  </si>
-  <si>
     <t>/static/monan/ruounep2.PNG</t>
   </si>
   <si>
     <t>nuoccam</t>
   </si>
   <si>
-    <t>Nu?c cam</t>
-  </si>
-  <si>
     <t>/static/monan/nuocam.PNG</t>
   </si>
   <si>
     <t>laubo</t>
   </si>
   <si>
-    <t>n?i</t>
-  </si>
-  <si>
     <t>/static/monan/laubo.PNG</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>lauthapcam</t>
   </si>
   <si>
-    <t>L?u th?p c?m</t>
-  </si>
-  <si>
     <t>migoi</t>
   </si>
   <si>
@@ -182,18 +170,12 @@
     <t>dautamhanh</t>
   </si>
   <si>
-    <t>пu t?m hành</t>
-  </si>
-  <si>
     <t>dia</t>
   </si>
   <si>
     <t>thitbachinuong</t>
   </si>
   <si>
-    <t>Th?t ba ch? nu?ng</t>
-  </si>
-  <si>
     <t>nemtai</t>
   </si>
   <si>
@@ -203,9 +185,6 @@
     <t>kemtrangtien</t>
   </si>
   <si>
-    <t>Kem tràng ti?n</t>
-  </si>
-  <si>
     <t>que</t>
   </si>
   <si>
@@ -218,21 +197,6 @@
     <t>Bũ khụ</t>
   </si>
   <si>
-    <t>Thu?c lỏ vina</t>
-  </si>
-  <si>
-    <t>Nu?c suụi</t>
-  </si>
-  <si>
-    <t>Cụ ca cụ la</t>
-  </si>
-  <si>
-    <t>L?u bũ</t>
-  </si>
-  <si>
-    <t>L?u cỏ chộp</t>
-  </si>
-  <si>
     <t>cay</t>
   </si>
   <si>
@@ -516,6 +480,42 @@
   </si>
   <si>
     <t>nhanvien1</t>
+  </si>
+  <si>
+    <t>Thuốc lá vina</t>
+  </si>
+  <si>
+    <t>Nước lọc</t>
+  </si>
+  <si>
+    <t>Nước coca</t>
+  </si>
+  <si>
+    <t>Rượu nếp</t>
+  </si>
+  <si>
+    <t>Nước cam</t>
+  </si>
+  <si>
+    <t>Lẩu bò</t>
+  </si>
+  <si>
+    <t>Lẩu cá chép</t>
+  </si>
+  <si>
+    <t>Lẩu thập cẩm</t>
+  </si>
+  <si>
+    <t>Đậu tẩm hành</t>
+  </si>
+  <si>
+    <t>Thit ba chỉ nướng</t>
+  </si>
+  <si>
+    <t>Kem tràng tiền</t>
+  </si>
+  <si>
+    <t>nồi</t>
   </si>
 </sst>
 </file>
@@ -848,13 +848,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -872,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -893,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>4</v>
@@ -914,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
@@ -935,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>4</v>
@@ -956,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
@@ -977,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>4</v>
@@ -992,13 +993,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
@@ -1019,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>4</v>
@@ -1034,13 +1035,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
@@ -1061,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>4</v>
@@ -1082,7 +1083,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -1103,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>4</v>
@@ -1118,13 +1119,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>21</v>
@@ -1145,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>4</v>
@@ -1160,13 +1161,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -1187,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
@@ -1202,16 +1203,16 @@
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3">
         <v>40000</v>
@@ -1229,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -1241,19 +1242,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3">
         <v>8000</v>
@@ -1271,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -1283,19 +1284,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="E11" s="3">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -1313,10 +1314,10 @@
         <v>2012757</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -1325,16 +1326,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="E12" s="3">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -1355,10 +1356,10 @@
         <v>2012757</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N12" s="3"/>
     </row>
@@ -1367,16 +1368,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>4</v>
@@ -1397,10 +1398,10 @@
         <v>2012757</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N13" s="3"/>
     </row>
@@ -1409,16 +1410,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1439,7 +1440,7 @@
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1451,16 +1452,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1481,7 +1482,7 @@
         <v>2012757</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1493,16 +1494,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>4</v>
@@ -1523,7 +1524,7 @@
         <v>2012757</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>4</v>
@@ -1535,13 +1536,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1565,7 +1566,7 @@
         <v>2012757</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
@@ -1577,16 +1578,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -1607,7 +1608,7 @@
         <v>2012757</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
@@ -1619,16 +1620,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>4</v>
@@ -1649,10 +1650,10 @@
         <v>2012757</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N19" s="3"/>
     </row>
@@ -1661,16 +1662,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E20" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1691,10 +1692,10 @@
         <v>2012757</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N20" s="3"/>
     </row>
@@ -1703,16 +1704,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1733,10 +1734,10 @@
         <v>2012757</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N21" s="3"/>
     </row>
@@ -1745,19 +1746,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E22" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G22" s="3">
         <v>5000</v>
@@ -1775,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1818,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1838,13 +1839,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1858,13 +1859,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -1878,13 +1879,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -1898,13 +1899,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -1918,13 +1919,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -1938,10 +1939,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -1958,10 +1959,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -1978,19 +1979,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2">
         <v>45437</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2033,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -2095,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2157,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -2219,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -2281,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2343,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -2405,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -2467,7 +2468,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -2529,7 +2530,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -2591,7 +2592,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -2653,7 +2654,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -2715,7 +2716,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -2777,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -2839,7 +2840,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -2901,7 +2902,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -2963,7 +2964,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -3091,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3108,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -3117,10 +3118,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I1" s="2">
         <v>45431.973923611113</v>
@@ -3137,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -3146,10 +3147,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I2" s="2">
         <v>45431.973923611113</v>
@@ -3160,13 +3161,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -3175,10 +3176,10 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I3" s="2">
         <v>45414.035474537035</v>
@@ -3189,13 +3190,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -3204,10 +3205,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I4" s="2">
         <v>45430.366793981484</v>
@@ -3224,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -3233,10 +3234,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I5" s="2">
         <v>45430.691817129627</v>
@@ -3281,7 +3282,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,13 +3295,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1">
         <v>0.5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2">
         <v>45426.14880787037</v>
@@ -3311,13 +3312,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>0.5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2">
         <v>45426.149050925924</v>
@@ -3328,13 +3329,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>2E-3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2">
         <v>45426.149664351855</v>
@@ -3345,13 +3346,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>0.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2">
         <v>45426.154374999998</v>
@@ -3362,13 +3363,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>2E-3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2">
         <v>45426.154548611114</v>
@@ -3379,13 +3380,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2">
         <v>45426.154745370368</v>
@@ -3396,13 +3397,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
         <v>0.5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2">
         <v>45426.155138888891</v>
@@ -3413,13 +3414,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
         <v>0.5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2">
         <v>45426.155277777776</v>
@@ -3448,7 +3449,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1">
         <v>10</v>
@@ -3468,7 +3469,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -3485,10 +3486,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1">
         <v>30</v>
@@ -3540,10 +3541,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -3569,10 +3570,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -3598,10 +3599,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -3627,10 +3628,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -3656,10 +3657,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -3685,10 +3686,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -3714,10 +3715,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1">
         <v>-130000</v>
@@ -3743,10 +3744,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1">
         <v>-10000</v>
@@ -3814,7 +3815,7 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1">
         <v>2012757</v>
@@ -3842,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -3862,7 +3863,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -3882,7 +3883,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3996,10 +3997,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -4025,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -4048,10 +4049,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -4074,10 +4075,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -4100,10 +4101,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -4126,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -4152,10 +4153,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4178,10 +4179,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -4204,10 +4205,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -4230,10 +4231,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -4256,10 +4257,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -4285,7 +4286,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -4308,10 +4309,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -4334,10 +4335,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -4360,10 +4361,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -4386,10 +4387,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -4412,10 +4413,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -4438,10 +4439,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>4</v>
